--- a/Examples/DOE_Input.xlsx
+++ b/Examples/DOE_Input.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,122 +478,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Viscosity</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>800</v>
-      </c>
-      <c r="C2" t="n">
-        <v>50</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+          <t>Densidade</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1000</v>
+      </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
       <c r="H2" t="inlineStr">
-        <is>
-          <t>Continuous</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Densidade</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Continuous</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Numero de Pratos</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="n">
-        <v>15</v>
-      </c>
-      <c r="E4" t="n">
-        <v>10</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Discrete</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Discreto 2</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="n">
-        <v>10</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Discrete</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Temperatura</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="n">
-        <v>50</v>
-      </c>
-      <c r="E6" t="n">
-        <v>20</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="H6" t="inlineStr">
         <is>
           <t>Continuous</t>
         </is>
